--- a/sample_synthetic/sample_synthetic.xlsx
+++ b/sample_synthetic/sample_synthetic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,6 +1090,1206 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
